--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\master_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1AC93F-F6CE-4945-BF0D-77852B9FEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D080433-8361-42E4-992D-BE3EB2098F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="397">
   <si>
     <t>Ontology</t>
   </si>
@@ -931,9 +931,6 @@
   </si>
   <si>
     <t>rdfs:label, rdf datatype(definition)</t>
-  </si>
-  <si>
-    <t>Just forget this Ontology ever existed, it is that bad!</t>
   </si>
   <si>
     <t>Egon Willighagen; Cristian Munteanu; Evan Bolton; Gang Fu; Janna Hastings; Leonid Chepelev; Mark Davies; Michel Dumontier</t>
@@ -1288,6 +1285,12 @@
       </rPr>
       <t>https://www.ebi.ac.uk/chebi/downloadsForward.do</t>
     </r>
+  </si>
+  <si>
+    <t>Ontology on Physico-chemical Processes</t>
+  </si>
+  <si>
+    <t>Not really usable, not FAIR</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2644,7 +2647,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2654,7 +2657,7 @@
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2664,7 +2667,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2679,7 +2682,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2689,7 +2692,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2699,7 +2702,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2709,17 +2712,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2734,7 +2737,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -2744,7 +2747,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -2764,7 +2767,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -2774,7 +2777,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -2794,7 +2797,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -2804,7 +2807,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2814,7 +2817,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3049,7 +3052,7 @@
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -3104,7 +3107,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3127,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,7 +3137,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3152,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,7 +3162,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,12 +3187,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3204,7 +3207,7 @@
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,7 +3217,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3227,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,7 +3237,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,7 +3257,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,7 +3277,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,7 +3287,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3419,7 +3422,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,7 +3522,7 @@
     </row>
     <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3583,7 +3586,7 @@
     </row>
     <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3608,7 +3611,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3618,7 +3621,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3638,17 +3641,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3683,7 +3686,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3693,7 +3696,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -3713,7 +3716,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -3723,7 +3726,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -3733,7 +3736,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -3743,7 +3746,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3978,7 +3981,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4014,7 +4017,7 @@
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,7 +4038,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4045,7 +4048,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4118,12 +4121,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -4143,7 +4146,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -4173,7 +4176,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4183,7 +4186,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4193,7 +4196,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4213,7 +4216,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4223,7 +4226,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4358,7 +4361,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4458,7 +4461,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4486,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4538,7 +4541,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4548,7 +4551,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4563,7 +4566,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4573,7 +4576,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4594,17 +4597,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4639,7 +4642,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4649,7 +4652,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4659,7 +4662,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4669,7 +4672,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4689,7 +4692,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4699,7 +4702,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4837,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4934,7 +4937,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4988,7 +4991,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5043,7 +5046,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5053,7 +5056,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5073,12 +5076,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -5108,7 +5111,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -5118,7 +5121,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -5128,7 +5131,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -5148,7 +5151,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -5158,7 +5161,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -5168,7 +5171,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -5178,7 +5181,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -5413,7 +5416,7 @@
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -6477,7 +6480,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -6939,7 +6942,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -7412,7 +7415,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7766,8 +7769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,7 +7883,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8227,7 +8230,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -8298,7 +8301,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8333,7 +8336,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8358,12 +8361,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -8378,7 +8381,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -8398,7 +8401,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -8408,7 +8411,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -8428,7 +8431,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -8438,7 +8441,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -8448,7 +8451,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -8458,7 +8461,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -8693,7 +8696,7 @@
     </row>
     <row r="93" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -8749,7 +8752,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8774,7 +8777,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8784,7 +8787,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -8809,7 +8812,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8834,7 +8837,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8852,7 +8855,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -8872,7 +8875,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -8882,7 +8885,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -8892,7 +8895,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -8902,7 +8905,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -8912,7 +8915,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -8922,7 +8925,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -8932,7 +8935,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -9167,7 +9170,7 @@
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -9188,7 +9191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -9220,7 +9223,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9230,7 +9233,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9240,7 +9243,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9250,7 +9253,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9265,7 +9268,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9275,7 +9278,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9285,7 +9288,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9295,17 +9298,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9320,7 +9323,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -9340,7 +9343,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -9350,7 +9353,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -9360,7 +9363,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -9370,7 +9373,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -9380,7 +9383,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -9390,7 +9393,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -9400,7 +9403,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9635,7 +9638,7 @@
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -9660,6 +9663,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9791,12 +9800,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -9806,6 +9809,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9821,13 +9833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\master_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D080433-8361-42E4-992D-BE3EB2098F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544FE88-6BC8-497D-9016-6FF06C2B9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -1092,9 +1092,6 @@
     <t>While it  sounds like the Ontology should describe Environemnts and its relations, such as 'Lake' 'canBePoisonedBy' 'CopperSalt' or 'Windturbine' 'generates('NoisePolution' 'some' 'dB')', it is more of a "biome-ontology", descriptions of local/abstract environments end a e.g. Wastefills.</t>
   </si>
   <si>
-    <t>ontology for the domain of Computer Aided Process Engineering</t>
-  </si>
-  <si>
     <t>RWTH Aachen University</t>
   </si>
   <si>
@@ -1291,6 +1288,9 @@
   </si>
   <si>
     <t>Not really usable, not FAIR</t>
+  </si>
+  <si>
+    <t>Ontology for the domain of Computer Aided Process Engineering</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,12 +3187,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,7 +3217,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3227,7 +3227,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
     </row>
     <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3641,17 +3641,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3981,7 +3981,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4038,7 +4038,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4121,12 +4121,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4361,7 +4361,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4566,7 +4566,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4576,7 +4576,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4597,17 +4597,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4642,7 +4642,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5076,12 +5076,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -5111,7 +5111,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -5131,7 +5131,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -5151,7 +5151,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -5161,7 +5161,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -5181,7 +5181,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -6942,7 +6942,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -8361,7 +8361,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -9303,12 +9303,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9663,12 +9663,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9800,6 +9794,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -9809,15 +9809,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9833,4 +9824,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\master_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\Ontology-Overview-of-NFDI4Cat\master_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544FE88-6BC8-497D-9016-6FF06C2B9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -32,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="396">
   <si>
     <t>Ontology</t>
   </si>
@@ -895,9 +894,6 @@
   </si>
   <si>
     <t>terminated consortium of the EMMC</t>
-  </si>
-  <si>
-    <t>http://champ-project.org/images/ontology/cao.owl</t>
   </si>
   <si>
     <t>https://champ.stuchalk.domains.unf.edu/best-practices</t>
@@ -1296,7 +1292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1795,8 +1791,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2080,521 +2076,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="36"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A126" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A126" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -2602,469 +2598,469 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -3072,457 +3068,457 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>4811</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>3067</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3531,481 +3527,481 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>1786</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>1110</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -4013,470 +4009,470 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>3609</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>730</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4486,479 +4482,479 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>119</v>
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>2982</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>745</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>695</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>694</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -4966,482 +4962,482 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>10812</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>7252</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>1712</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>1082</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>897</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="A19" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -5449,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5457,21 +5453,21 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>81</v>
       </c>
@@ -5503,7 +5499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>100</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>107</v>
       </c>
@@ -5599,7 +5595,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>118</v>
       </c>
@@ -5663,7 +5659,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -5695,7 +5691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>129</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>135</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>141</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>147</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>153</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>159</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>165</v>
       </c>
@@ -5911,7 +5907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>172</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>178</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>184</v>
       </c>
@@ -5995,7 +5991,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>189</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>194</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>167</v>
       </c>
@@ -6083,7 +6079,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>202</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>207</v>
       </c>
@@ -6133,7 +6129,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>213</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>219</v>
       </c>
@@ -6187,7 +6183,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>225</v>
       </c>
@@ -6244,7 +6240,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>227</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>229</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>231</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -6288,7 +6284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -6297,7 +6293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -6315,7 +6311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -6326,503 +6322,503 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G13" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="G21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo"/>
+    <hyperlink ref="G10" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+    <hyperlink ref="G11" r:id="rId16"/>
+    <hyperlink ref="H11" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="G13" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G15" r:id="rId22"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY"/>
+    <hyperlink ref="H17" r:id="rId25"/>
+    <hyperlink ref="H18" r:id="rId26"/>
+    <hyperlink ref="H19" r:id="rId27"/>
+    <hyperlink ref="G20" r:id="rId28"/>
+    <hyperlink ref="H20" r:id="rId29"/>
+    <hyperlink ref="G21" r:id="rId30"/>
+    <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="G18" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>7382</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>2527</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>1055</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>935</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="36"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
@@ -6830,1896 +6826,1896 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="42" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="42" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A93" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A93"/>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>24686</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>5299</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>3347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>2876</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A21" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A39" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A23" r:id="rId4"/>
+    <hyperlink ref="A39" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="116.42578125" customWidth="1"/>
+    <col min="1" max="1" width="116.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A46" s="53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A54" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A58" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A60" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A75" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <v>2646</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A79" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A81" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A83" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A85" s="56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A87" s="56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A89" s="56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A23" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>7555</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>1591</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>850</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -8727,460 +8723,460 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>27840</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>3479</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>3162</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>3101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -9188,465 +9184,465 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>2928713</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>317346</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>176920</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>176873</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -9654,15 +9650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9794,6 +9781,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9801,14 +9797,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9826,6 +9814,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>

--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="396">
   <si>
     <t>Ontology</t>
   </si>
@@ -2601,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -3071,7 +3071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4012,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,7 +4088,9 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="60" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -4965,7 +4967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -6363,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6535,14 +6537,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6829,8 +6846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6934,7 +6951,9 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -7299,7 +7318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -7765,7 +7784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8245,7 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -8726,8 +8745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8756,6 +8775,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
@@ -8837,7 +8861,9 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -9187,7 +9213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -9650,6 +9676,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9781,15 +9816,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9797,6 +9823,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9814,14 +9848,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>

--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -959,9 +959,6 @@
     <t>rdfs:label, dc:description</t>
   </si>
   <si>
-    <t>This Ontology has a lot of very specific classes and atributes allowing for a description of atmoic properties (like band gap), however due to the lack of conceptualisation a "bond dissociation Gibbs energetic descriptor" is just three classes away from its basicly central superclass 'chemical descriptor'. (this is a bit to simplified, since neither an enthalpy/entropy nor Gibbs energy is well separated, semantically and topologically differentiated)</t>
-  </si>
-  <si>
     <t>Chemical Methods Ontology</t>
   </si>
   <si>
@@ -1287,6 +1284,9 @@
   </si>
   <si>
     <t>Ontology for the domain of Computer Aided Process Engineering</t>
+  </si>
+  <si>
+    <t>Could not be read in properly in python's owlready2, calling classes leads to kernel crashing. This Ontology has a lot of very specific classes and atributes allowing for a description of atmoic properties (like band gap), however due to the lack of conceptualisation a "bond dissociation Gibbs energetic descriptor" is just three classes away from its basicly central superclass 'chemical descriptor'. (this is a bit to simplified, since neither an enthalpy/entropy nor Gibbs energy is well separated, semantically and topologically differentiated)</t>
   </si>
 </sst>
 </file>
@@ -2083,503 +2083,503 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>80</v>
       </c>
@@ -2605,453 +2605,453 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -3075,450 +3075,450 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>4811</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>3067</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3534,465 +3534,465 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>1786</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>1110</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4016,465 +4016,465 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>3609</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>730</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4491,466 +4491,466 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
         <v>119</v>
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>2982</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>745</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>695</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>694</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4971,465 +4971,465 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>10812</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>7252</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1712</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>1082</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>897</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -5455,21 +5455,21 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>81</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>100</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>107</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>118</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>129</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>135</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>141</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>147</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>153</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>159</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>165</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>172</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>178</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>184</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>189</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>194</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>167</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>202</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>207</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>213</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>219</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>225</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>227</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>229</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>231</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -6365,469 +6365,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>7382</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>2527</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1055</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>935</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
     </row>
   </sheetData>
@@ -6850,457 +6850,457 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
         <v>254</v>
       </c>
@@ -7322,448 +7322,448 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>24686</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>5299</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>3347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>2876</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>270</v>
       </c>
@@ -7788,467 +7788,467 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.44140625" customWidth="1"/>
+    <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>2646</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
     </row>
   </sheetData>
@@ -8264,469 +8264,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>7555</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>1591</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>850</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -8749,453 +8749,453 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>27840</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>3479</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>3162</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>3101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -9217,453 +9217,453 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>2928713</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>317346</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>176920</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>176873</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -9676,15 +9676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9816,6 +9807,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9823,14 +9823,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9848,6 +9840,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>

--- a/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/master_table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="397">
   <si>
     <t>Ontology</t>
   </si>
@@ -1287,6 +1287,9 @@
   </si>
   <si>
     <t>Could not be read in properly in python's owlready2, calling classes leads to kernel crashing. This Ontology has a lot of very specific classes and atributes allowing for a description of atmoic properties (like band gap), however due to the lack of conceptualisation a "bond dissociation Gibbs energetic descriptor" is just three classes away from its basicly central superclass 'chemical descriptor'. (this is a bit to simplified, since neither an enthalpy/entropy nor Gibbs energy is well separated, semantically and topologically differentiated)</t>
+  </si>
+  <si>
+    <t>The Environment Ontology</t>
   </si>
 </sst>
 </file>
@@ -2601,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2626,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2633,7 +2636,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8264,7 +8267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -9808,18 +9811,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9841,18 +9844,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>